--- a/САВР/Лабораторные/lab5/Lab5_Var№5_Кендысь.xlsx
+++ b/САВР/Лабораторные/lab5/Lab5_Var№5_Кендысь.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\studies\САВР\Лабораторные\lab5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A8C164-3CB4-41CA-BE19-CEEE21ACA737}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E52CA8-E26C-438C-BB65-8F867153BB3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1562,9 +1562,6 @@
     </r>
   </si>
   <si>
-    <t>Из графика связи и линии регрессии видно, что полученная модель неплохо описывает данные, хотя и некоторые значения лежат относительно далеко от линии (большой разброс значений). Оба коэффициента регрессии оказались значимыми (уровень значимости 0.02), но стандартная ошибка модели (0.42) превышает допустимую (0.35), т.е. модель спорная. Требуются дополнительные исследования для оценки адекватности модели.</t>
-  </si>
-  <si>
     <r>
       <t>(Y*-Yср)</t>
     </r>
@@ -1818,7 +1815,13 @@
     <t>Гипотеза о равенстве дисперсий отвергается. Регрессионная модель является значимой (информативной). Уровень значимости = 0.05.</t>
   </si>
   <si>
-    <t>Наблюдается крайне малое отклонение от линейности. Оно считается несущественным.</t>
+    <t>Наблюдается крайне малое отклонение от линейности. Оно считается несущественным. Коэффициент детерминации меньше 0.7, соответственно модель не является адекватной.</t>
+  </si>
+  <si>
+    <t>Модель среднего качество и требует уточнения.
+Величины коэффициента корреляции и коэффициентов модели a и b являются значимыми - это преимущества модели. Регрессионная модель является информативной. Отклонение от линейности модели считается несущественным.
+Тем не менее, дисперсии, описываемой моделью, недостаточно. Стандартная ошибка превышает допустимую. Коэффициент детерминации меньше 0.7, модель требует улучшения. Из всего этого можно сделать вывод, что модель не является адекватной, точность аппроксимации недостаточна.
+Из результатов анализа также можно оценить важность вычисления коэффициента детерминации. Хотя и все коэффициенты модели, и сама модель являются значимыми, из построенных графиков все равно видно, что линейная модель, конечно же, не является идеальной, есть отклонения от фактических значений температуры.</t>
   </si>
 </sst>
 </file>
@@ -2146,19 +2149,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2175,15 +2211,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2212,23 +2239,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2243,22 +2261,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2932,10 +2935,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="103"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="3"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -3024,7 +3027,9 @@
           <c:spPr>
             <a:ln w="31750" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:shade val="76000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3289,7 +3294,9 @@
           <c:spPr>
             <a:ln w="31750" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1">
+                  <a:tint val="77000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3646,7 +3653,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -3904,42 +3911,8 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
   <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -4416,15 +4389,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1242060</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4452,15 +4425,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1463040</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:colOff>1417320</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4754,7 +4727,7 @@
   <dimension ref="A1:W45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:L18"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4774,102 +4747,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="R1" s="46" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="R1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="S1" s="48" t="s">
+      <c r="S1" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="T1" s="48" t="s">
+      <c r="T1" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="U1" s="46" t="s">
+      <c r="U1" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="V1" s="46" t="s">
+      <c r="V1" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="W1" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="W1" s="46" t="s">
-        <v>108</v>
-      </c>
     </row>
     <row r="2" spans="1:23" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="47"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="1">
         <f>'lab2 results'!E50</f>
         <v>0.55295210126788286</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
       <c r="G2" s="1">
         <f>'lab2 results'!F50</f>
         <v>0.5263960186438722</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28">
+      <c r="I2" s="31"/>
+      <c r="J2" s="31">
         <f>SUMPRODUCT('lab2 results'!C3:C39-'lab2 results'!E45, 'lab2 results'!D3:D39-'lab2 results'!F45)/'lab2 results'!L40</f>
         <v>0.17327976625273925</v>
       </c>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="1">
         <f>STDEVP('lab2 results'!C3:C39)</f>
         <v>0.55295210126788263</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
       <c r="G3" s="1">
         <f>STDEVP('lab2 results'!D3:D39)</f>
         <v>0.5263960186438722</v>
       </c>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="46"/>
-      <c r="J3" s="28">
+      <c r="I3" s="29"/>
+      <c r="J3" s="31">
         <f>COVAR('lab2 results'!C3:C39, 'lab2 results'!D3:D39)</f>
         <v>0.17327976625273925</v>
       </c>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
       <c r="R3" s="1">
         <v>1957</v>
       </c>
@@ -4893,20 +4866,20 @@
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
       <c r="R4" s="1">
         <v>1958</v>
       </c>
@@ -4930,24 +4903,24 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="46" t="s">
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
       <c r="R5" s="1">
         <v>1959</v>
       </c>
@@ -4971,39 +4944,39 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="28"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="1">
         <f>J2/(C2*G2)</f>
         <v>0.59531626016584871</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="31">
         <f>SQRT((1-C6^2)/('lab2 results'!L40-2))</f>
         <v>0.13581484774523497</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="40">
         <f>C6/E6</f>
         <v>4.3832929171526107</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I6" s="13">
         <v>2.44</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
       <c r="R6" s="1">
         <v>1960</v>
       </c>
@@ -5027,18 +5000,18 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="46"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="1">
         <f>PEARSON('lab2 results'!C3:C39, 'lab2 results'!D3:D39)</f>
         <v>0.59531626016584893</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="40"/>
       <c r="H7" s="2" t="s">
         <v>68</v>
       </c>
@@ -5046,9 +5019,9 @@
         <f>TINV(0.02, 35)</f>
         <v>2.4377225471437423</v>
       </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
       <c r="R7" s="1">
         <v>1961</v>
       </c>
@@ -5072,10 +5045,10 @@
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="1">
         <f>(EXP(2*E8)-1)/(EXP(2*E8)+1)</f>
         <v>0.2786971970352396</v>
@@ -5087,23 +5060,23 @@
         <f>0.5*LN((1+C6)/(1-C6))-(I8/SQRT('lab2 results'!L40-3))</f>
         <v>0.28626899913994547</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="40">
         <v>0.98</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="40">
         <v>2.33</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
       <c r="R8" s="1">
         <v>1962</v>
       </c>
@@ -5127,10 +5100,10 @@
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="28"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="1">
         <f>(EXP(2*E9)-1)/(EXP(2*E9)+1)</f>
         <v>0.79521231427662864</v>
@@ -5142,13 +5115,13 @@
         <f>0.5*LN((1+C6)/(1-C6))+(I8/SQRT('lab2 results'!L40-3))</f>
         <v>1.0854524059040367</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
       <c r="R9" s="1">
         <v>1963</v>
       </c>
@@ -5172,10 +5145,10 @@
       </c>
     </row>
     <row r="10" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="31"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="18">
         <f>G2^2*(1-C6^2)</f>
         <v>0.17889068962889984</v>
@@ -5196,11 +5169,11 @@
       </c>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
-      <c r="J10" s="49" t="s">
+      <c r="J10" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
       <c r="R10" s="1">
         <v>1964</v>
       </c>
@@ -5224,10 +5197,10 @@
       </c>
     </row>
     <row r="11" spans="1:23" ht="31.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="31"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="18">
         <f>J2/C2^2</f>
         <v>0.56672559606287909</v>
@@ -5239,7 +5212,7 @@
         <f>SQRT(C10)/(C2*SQRT('lab2 results'!L40-2))</f>
         <v>0.12929220263724112</v>
       </c>
-      <c r="F11" s="60" t="s">
+      <c r="F11" s="26" t="s">
         <v>94</v>
       </c>
       <c r="G11" s="18">
@@ -5247,16 +5220,16 @@
         <v>4.3832929171526107</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I11" s="17">
         <v>2.44</v>
       </c>
-      <c r="J11" s="34" t="s">
+      <c r="J11" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="K11" s="35"/>
-      <c r="L11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="37"/>
       <c r="R11" s="1">
         <v>1965</v>
       </c>
@@ -5280,10 +5253,10 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="31"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="18">
         <f>'lab2 results'!F45-'lab2 results'!E45*C11</f>
         <v>3.5328634908500174</v>
@@ -5295,7 +5268,7 @@
         <f>(SQRT(C10)/SQRT('lab2 results'!L40-2))*SQRT(1+('lab2 results'!E45^2/C2^2))</f>
         <v>1.0333193806032008</v>
       </c>
-      <c r="F12" s="60" t="s">
+      <c r="F12" s="26" t="s">
         <v>95</v>
       </c>
       <c r="G12" s="18">
@@ -5303,16 +5276,16 @@
         <v>3.4189463172438574</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I12" s="17">
         <v>2.44</v>
       </c>
-      <c r="J12" s="34" t="s">
+      <c r="J12" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="K12" s="35"/>
-      <c r="L12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="37"/>
       <c r="R12" s="1">
         <v>1966</v>
       </c>
@@ -5336,34 +5309,34 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="28"/>
+      <c r="A13" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="31"/>
       <c r="C13" s="1">
         <f>SUM(V3:V39)/'lab2 results'!M40</f>
         <v>9.8202078815219862E-2</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="61" t="s">
-        <v>113</v>
-      </c>
-      <c r="G13" s="28">
+      <c r="F13" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="31">
         <f>('lab2 results'!M40-2)*C13/C14</f>
         <v>19.213256797560216</v>
       </c>
-      <c r="H13" s="28" t="s">
+      <c r="H13" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" s="31">
+        <v>4.12</v>
+      </c>
+      <c r="J13" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="I13" s="28">
-        <v>4.12</v>
-      </c>
-      <c r="J13" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
       <c r="R13" s="1">
         <v>1967</v>
       </c>
@@ -5387,23 +5360,23 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="B14" s="28"/>
+      <c r="A14" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="31"/>
       <c r="C14" s="1">
         <f>SUM(W3:W39)/'lab2 results'!M40</f>
         <v>0.17889068962889987</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
       <c r="R14" s="1">
         <v>1968</v>
       </c>
@@ -5426,20 +5399,20 @@
         <v>2.5031067030100189E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15" s="28"/>
+    <row r="15" spans="1:23" ht="43.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="31"/>
       <c r="C15" s="1">
         <f>C13/(G2)^2</f>
         <v>0.35440144961785197</v>
       </c>
-      <c r="D15" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
+      <c r="D15" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
       <c r="G15" s="1">
         <f>C15-C6^2</f>
         <v>-4.9960036108132044E-16</v>
@@ -5448,11 +5421,11 @@
       <c r="I15" s="1">
         <v>0.1</v>
       </c>
-      <c r="J15" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
+      <c r="J15" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
       <c r="R15" s="1">
         <v>1969</v>
       </c>
@@ -5475,21 +5448,21 @@
         <v>3.9946503636096122E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="39"/>
+    <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="47"/>
       <c r="R16" s="1">
         <v>1970</v>
       </c>
@@ -5513,18 +5486,18 @@
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17" s="40"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="42"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="50"/>
       <c r="R17" s="1">
         <v>1971</v>
       </c>
@@ -5548,18 +5521,18 @@
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18" s="43"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="45"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="50"/>
       <c r="R18" s="1">
         <v>1972</v>
       </c>
@@ -5583,6 +5556,18 @@
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19" s="48"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="50"/>
       <c r="R19" s="1">
         <v>1973</v>
       </c>
@@ -5606,6 +5591,18 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20" s="48"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="50"/>
       <c r="R20" s="1">
         <v>1974</v>
       </c>
@@ -5629,6 +5626,18 @@
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A21" s="48"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="50"/>
       <c r="R21" s="1">
         <v>1975</v>
       </c>
@@ -5651,7 +5660,19 @@
         <v>9.8149234665488458E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="51"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="53"/>
       <c r="R22" s="1">
         <v>1976</v>
       </c>
@@ -5721,6 +5742,10 @@
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C25" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="55"/>
       <c r="R25" s="1">
         <v>1979</v>
       </c>
@@ -5744,6 +5769,19 @@
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B26" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="14">
+        <f t="array" ref="C26:D30">LINEST(T3:T39, S3:S39,TRUE,TRUE)</f>
+        <v>0.56672559606287931</v>
+      </c>
+      <c r="D26" s="14">
+        <v>3.5328634908500156</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>85</v>
+      </c>
       <c r="R26" s="1">
         <v>1980</v>
       </c>
@@ -5767,6 +5805,18 @@
       </c>
     </row>
     <row r="27" spans="1:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.12929220263724109</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1.0333193806032006</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>87</v>
+      </c>
       <c r="R27" s="1">
         <v>1981</v>
       </c>
@@ -5789,7 +5839,19 @@
         <v>3.8716565163520997E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="16.8" x14ac:dyDescent="0.35">
+      <c r="B28" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.35440144961785258</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.43487126227258477</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>102</v>
+      </c>
       <c r="R28" s="1">
         <v>1982</v>
       </c>
@@ -5813,6 +5875,18 @@
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B29" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="1">
+        <v>19.213256797560252</v>
+      </c>
+      <c r="D29" s="1">
+        <v>35</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>99</v>
+      </c>
       <c r="R29" s="1">
         <v>1983</v>
       </c>
@@ -5835,11 +5909,20 @@
         <v>0.5378665471618389</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C30" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="25"/>
+    <row r="30" spans="1:23" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" s="28"/>
+      <c r="C30" s="1">
+        <v>3.6334769161631408</v>
+      </c>
+      <c r="D30" s="1">
+        <v>6.6189555162692928</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>111</v>
+      </c>
       <c r="R30" s="1">
         <v>1984</v>
       </c>
@@ -5863,19 +5946,6 @@
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B31" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="14">
-        <f t="array" ref="C31:D35">LINEST(T3:T39, S3:S39,TRUE,TRUE)</f>
-        <v>0.56672559606287931</v>
-      </c>
-      <c r="D31" s="14">
-        <v>3.5328634908500156</v>
-      </c>
-      <c r="E31" s="58" t="s">
-        <v>85</v>
-      </c>
       <c r="R31" s="1">
         <v>1985</v>
       </c>
@@ -5898,19 +5968,7 @@
         <v>8.410249416536969E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B32" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0.12929220263724109</v>
-      </c>
-      <c r="D32" s="1">
-        <v>1.0333193806032006</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>87</v>
-      </c>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="R32" s="1">
         <v>1986</v>
       </c>
@@ -5933,19 +5991,7 @@
         <v>0.49934221266227902</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="16.8" x14ac:dyDescent="0.35">
-      <c r="B33" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0.35440144961785258</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0.43487126227258477</v>
-      </c>
-      <c r="E33" s="59" t="s">
-        <v>102</v>
-      </c>
+    <row r="33" spans="9:23" x14ac:dyDescent="0.3">
       <c r="R33" s="1">
         <v>1987</v>
       </c>
@@ -5968,19 +6014,7 @@
         <v>4.1350986397083338E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B34" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="1">
-        <v>19.213256797560252</v>
-      </c>
-      <c r="D34" s="1">
-        <v>35</v>
-      </c>
-      <c r="E34" s="58" t="s">
-        <v>99</v>
-      </c>
+    <row r="34" spans="9:23" x14ac:dyDescent="0.3">
       <c r="R34" s="1">
         <v>1988</v>
       </c>
@@ -6003,20 +6037,7 @@
         <v>1.5982421573114624E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="56" t="s">
-        <v>111</v>
-      </c>
-      <c r="B35" s="57"/>
-      <c r="C35" s="1">
-        <v>3.6334769161631408</v>
-      </c>
-      <c r="D35" s="1">
-        <v>6.6189555162692928</v>
-      </c>
-      <c r="E35" s="58" t="s">
-        <v>112</v>
-      </c>
+    <row r="35" spans="9:23" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R35" s="1">
         <v>1989</v>
       </c>
@@ -6039,7 +6060,7 @@
         <v>8.1007740640746621E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="9:23" x14ac:dyDescent="0.3">
       <c r="R36" s="1">
         <v>1990</v>
       </c>
@@ -6062,7 +6083,7 @@
         <v>1.9593846342890991E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="9:23" x14ac:dyDescent="0.3">
       <c r="R37" s="1">
         <v>1991</v>
       </c>
@@ -6085,7 +6106,7 @@
         <v>2.5607033786152259E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="9:23" x14ac:dyDescent="0.3">
       <c r="R38" s="1">
         <v>1992</v>
       </c>
@@ -6108,7 +6129,7 @@
         <v>0.37209475370954337</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="9:23" x14ac:dyDescent="0.3">
       <c r="R39" s="1">
         <v>1993</v>
       </c>
@@ -6131,7 +6152,7 @@
         <v>5.7589450528470809E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="9:23" x14ac:dyDescent="0.3">
       <c r="I43" s="15" t="s">
         <v>92</v>
       </c>
@@ -6139,7 +6160,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="9:23" x14ac:dyDescent="0.3">
       <c r="I44" s="1">
         <f>MIN(S3:S39)</f>
         <v>6.3</v>
@@ -6149,7 +6170,7 @@
         <v>7.1032347460461551</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="9:23" x14ac:dyDescent="0.3">
       <c r="I45" s="1">
         <f>MAX(S3:S39)</f>
         <v>9</v>
@@ -6164,22 +6185,26 @@
     <sortCondition ref="R3"/>
   </sortState>
   <mergeCells count="52">
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="A16:L22"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="J8:L9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:I5"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="J10:L10"/>
@@ -6196,26 +6221,22 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="J8:L9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="A16:L18"/>
-    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -6227,7 +6248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V87"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A39"/>
     </sheetView>
   </sheetViews>
@@ -6250,76 +6271,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="24" t="s">
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="55"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="46" t="s">
+      <c r="O1" s="60"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="46" t="s">
+      <c r="R1" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="46" t="s">
+      <c r="S1" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="46" t="s">
+      <c r="T1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="46" t="s">
+      <c r="U1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="46" t="s">
+      <c r="V1" s="29" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="16.8" x14ac:dyDescent="0.35">
-      <c r="A2" s="46"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
       <c r="K2" s="3" t="s">
         <v>20</v>
       </c>
@@ -6338,12 +6359,12 @@
       <c r="P2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -8857,17 +8878,17 @@
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A43" s="51"/>
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
+      <c r="A43" s="61"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="61"/>
       <c r="E43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
     </row>
     <row r="44" spans="1:22" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A44" s="28"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
+      <c r="A44" s="31"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
       <c r="D44" s="6" t="s">
         <v>26</v>
       </c>
@@ -8877,43 +8898,43 @@
       <c r="F44" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G44" s="24" t="s">
+      <c r="G44" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="H44" s="55"/>
-      <c r="I44" s="55"/>
-      <c r="J44" s="25"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="55"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="46" t="s">
+      <c r="M44" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="N44" s="46"/>
-      <c r="O44" s="46"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="29"/>
     </row>
     <row r="45" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="50" t="s">
+      <c r="A45" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="50"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="29">
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="40">
         <f>SUMPRODUCT(K3:K19,H3:H19)/K40</f>
         <v>8.1810810810810803</v>
       </c>
-      <c r="E45" s="29">
+      <c r="E45" s="40">
         <f>SUMPRODUCT(L3:L19,I3:I19)/L40</f>
         <v>7.9729729729729746</v>
       </c>
-      <c r="F45" s="29">
+      <c r="F45" s="40">
         <f>SUMPRODUCT(M3:M22,J3:J22)/M40</f>
         <v>8.0513513513513519</v>
       </c>
-      <c r="G45" s="52" t="s">
+      <c r="G45" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="H45" s="53"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="54"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="59"/>
       <c r="L45" s="1"/>
       <c r="M45" s="6" t="s">
         <v>26</v>
@@ -8926,16 +8947,16 @@
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A46" s="50"/>
-      <c r="B46" s="50"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="54"/>
+      <c r="A46" s="56"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="58"/>
+      <c r="J46" s="59"/>
       <c r="L46" s="9" t="s">
         <v>39</v>
       </c>
@@ -8950,29 +8971,29 @@
       </c>
     </row>
     <row r="47" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="50" t="s">
+      <c r="A47" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="50"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="29">
+      <c r="B47" s="56"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="40">
         <f>SUMPRODUCT(H3:H19-D45, H3:H19-D45, K3:K19)/K40</f>
         <v>0.43937180423666905</v>
       </c>
-      <c r="E47" s="29">
+      <c r="E47" s="40">
         <f>SUMPRODUCT(I3:I19-E45, I3:I19-E45, L3:L19)/L40</f>
         <v>0.30575602629656695</v>
       </c>
-      <c r="F47" s="29">
+      <c r="F47" s="40">
         <f>SUMPRODUCT(J3:J22-F45, J3:J22-F45, M3:M22)/M40</f>
         <v>0.2770927684441199</v>
       </c>
-      <c r="G47" s="52" t="s">
+      <c r="G47" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="H47" s="53"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="54"/>
+      <c r="H47" s="58"/>
+      <c r="I47" s="58"/>
+      <c r="J47" s="59"/>
       <c r="L47" s="9" t="s">
         <v>40</v>
       </c>
@@ -8987,16 +9008,16 @@
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A48" s="50"/>
-      <c r="B48" s="50"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="52"/>
-      <c r="H48" s="53"/>
-      <c r="I48" s="53"/>
-      <c r="J48" s="54"/>
+      <c r="A48" s="56"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="58"/>
+      <c r="I48" s="58"/>
+      <c r="J48" s="59"/>
       <c r="L48" s="9" t="s">
         <v>41</v>
       </c>
@@ -9011,11 +9032,11 @@
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A49" s="50" t="s">
+      <c r="A49" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="50"/>
-      <c r="C49" s="50"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="56"/>
       <c r="D49" s="11">
         <f>SUMPRODUCT(H3:H19-D45, H3:H19-D45, K3:K19)/(K40-1)</f>
         <v>0.45157657657657652</v>
@@ -9028,10 +9049,10 @@
         <f>SUMPRODUCT(J3:J22-F45, J3:J22-F45, M3:M22)/(M40-1)</f>
         <v>0.28478978978978986</v>
       </c>
-      <c r="G49" s="52"/>
-      <c r="H49" s="53"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="54"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="58"/>
+      <c r="I49" s="58"/>
+      <c r="J49" s="59"/>
       <c r="L49" s="9" t="s">
         <v>42</v>
       </c>
@@ -9046,11 +9067,11 @@
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A50" s="50" t="s">
+      <c r="A50" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="50"/>
-      <c r="C50" s="50"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="56"/>
       <c r="D50" s="10">
         <f>SQRT(D47)</f>
         <v>0.6628512685638227</v>
@@ -9063,10 +9084,10 @@
         <f>SQRT(F47)</f>
         <v>0.5263960186438722</v>
       </c>
-      <c r="G50" s="52"/>
-      <c r="H50" s="53"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="54"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="58"/>
+      <c r="I50" s="58"/>
+      <c r="J50" s="59"/>
       <c r="L50" s="9" t="s">
         <v>43</v>
       </c>
@@ -9081,29 +9102,29 @@
       </c>
     </row>
     <row r="51" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="50" t="s">
+      <c r="A51" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="50"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="29">
+      <c r="B51" s="56"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="40">
         <f>D50/D45</f>
         <v>8.1022454366902683E-2</v>
       </c>
-      <c r="E51" s="29">
+      <c r="E51" s="40">
         <f>E50/E45</f>
         <v>6.935331439631072E-2</v>
       </c>
-      <c r="F51" s="29">
+      <c r="F51" s="40">
         <f>F50/F45</f>
         <v>6.5379834474062676E-2</v>
       </c>
-      <c r="G51" s="52" t="s">
+      <c r="G51" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="H51" s="53"/>
-      <c r="I51" s="53"/>
-      <c r="J51" s="54"/>
+      <c r="H51" s="58"/>
+      <c r="I51" s="58"/>
+      <c r="J51" s="59"/>
       <c r="L51" s="9" t="s">
         <v>44</v>
       </c>
@@ -9118,16 +9139,16 @@
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A52" s="50"/>
-      <c r="B52" s="50"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="52"/>
-      <c r="H52" s="53"/>
-      <c r="I52" s="53"/>
-      <c r="J52" s="54"/>
+      <c r="A52" s="56"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="58"/>
+      <c r="I52" s="58"/>
+      <c r="J52" s="59"/>
       <c r="L52" s="9" t="s">
         <v>45</v>
       </c>
@@ -9142,16 +9163,16 @@
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A53" s="50"/>
-      <c r="B53" s="50"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="52"/>
-      <c r="H53" s="53"/>
-      <c r="I53" s="53"/>
-      <c r="J53" s="54"/>
+      <c r="A53" s="56"/>
+      <c r="B53" s="56"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="58"/>
+      <c r="I53" s="58"/>
+      <c r="J53" s="59"/>
       <c r="L53" s="9" t="s">
         <v>46</v>
       </c>
@@ -9166,29 +9187,29 @@
       </c>
     </row>
     <row r="54" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="50" t="s">
+      <c r="A54" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B54" s="50"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="29">
+      <c r="B54" s="56"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="40">
         <f>Q40/(K40*D50^3)</f>
         <v>-1.2619066541331863</v>
       </c>
-      <c r="E54" s="29">
+      <c r="E54" s="40">
         <f>R40/(L40*E50^3)</f>
         <v>-0.3056496884394217</v>
       </c>
-      <c r="F54" s="29">
+      <c r="F54" s="40">
         <f>S40/(M40*F50^3)</f>
         <v>0.14240945598119886</v>
       </c>
-      <c r="G54" s="52" t="s">
+      <c r="G54" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="H54" s="53"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="54"/>
+      <c r="H54" s="58"/>
+      <c r="I54" s="58"/>
+      <c r="J54" s="59"/>
       <c r="L54" s="9" t="s">
         <v>47</v>
       </c>
@@ -9203,16 +9224,16 @@
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A55" s="50"/>
-      <c r="B55" s="50"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="52"/>
-      <c r="H55" s="53"/>
-      <c r="I55" s="53"/>
-      <c r="J55" s="54"/>
+      <c r="A55" s="56"/>
+      <c r="B55" s="56"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="58"/>
+      <c r="I55" s="58"/>
+      <c r="J55" s="59"/>
       <c r="L55" s="9" t="s">
         <v>48</v>
       </c>
@@ -9227,16 +9248,16 @@
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A56" s="50"/>
-      <c r="B56" s="50"/>
-      <c r="C56" s="50"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="52"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="54"/>
+      <c r="A56" s="56"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="58"/>
+      <c r="I56" s="58"/>
+      <c r="J56" s="59"/>
       <c r="L56" s="9" t="s">
         <v>49</v>
       </c>
@@ -9251,16 +9272,16 @@
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A57" s="50"/>
-      <c r="B57" s="50"/>
-      <c r="C57" s="50"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="52"/>
-      <c r="H57" s="53"/>
-      <c r="I57" s="53"/>
-      <c r="J57" s="54"/>
+      <c r="A57" s="56"/>
+      <c r="B57" s="56"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="57"/>
+      <c r="H57" s="58"/>
+      <c r="I57" s="58"/>
+      <c r="J57" s="59"/>
       <c r="L57" s="9" t="s">
         <v>50</v>
       </c>
@@ -9275,29 +9296,29 @@
       </c>
     </row>
     <row r="58" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="50" t="s">
+      <c r="A58" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B58" s="50"/>
-      <c r="C58" s="50"/>
-      <c r="D58" s="29">
+      <c r="B58" s="56"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="40">
         <f>T40/(K40*D47^2)-3</f>
         <v>1.4708680584490494</v>
       </c>
-      <c r="E58" s="29">
+      <c r="E58" s="40">
         <f>U40/(L40*E47^2)-3</f>
         <v>0.80811175067843388</v>
       </c>
-      <c r="F58" s="29">
+      <c r="F58" s="40">
         <f>V40/(M40*F47^2)-3</f>
         <v>-0.77126245071575994</v>
       </c>
-      <c r="G58" s="52" t="s">
+      <c r="G58" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="H58" s="53"/>
-      <c r="I58" s="53"/>
-      <c r="J58" s="54"/>
+      <c r="H58" s="58"/>
+      <c r="I58" s="58"/>
+      <c r="J58" s="59"/>
       <c r="L58" s="9" t="s">
         <v>51</v>
       </c>
@@ -9312,218 +9333,218 @@
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A59" s="50"/>
-      <c r="B59" s="50"/>
-      <c r="C59" s="50"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="52"/>
-      <c r="H59" s="53"/>
-      <c r="I59" s="53"/>
-      <c r="J59" s="54"/>
+      <c r="A59" s="56"/>
+      <c r="B59" s="56"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="57"/>
+      <c r="H59" s="58"/>
+      <c r="I59" s="58"/>
+      <c r="J59" s="59"/>
     </row>
     <row r="60" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="50"/>
-      <c r="B60" s="50"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="52"/>
-      <c r="H60" s="53"/>
-      <c r="I60" s="53"/>
-      <c r="J60" s="54"/>
-      <c r="L60" s="37" t="s">
+      <c r="A60" s="56"/>
+      <c r="B60" s="56"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="58"/>
+      <c r="I60" s="58"/>
+      <c r="J60" s="59"/>
+      <c r="L60" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="M60" s="38"/>
-      <c r="N60" s="38"/>
-      <c r="O60" s="39"/>
+      <c r="M60" s="46"/>
+      <c r="N60" s="46"/>
+      <c r="O60" s="47"/>
       <c r="P60" s="12"/>
       <c r="Q60" s="12"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A61" s="50"/>
-      <c r="B61" s="50"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="52"/>
-      <c r="H61" s="53"/>
-      <c r="I61" s="53"/>
-      <c r="J61" s="54"/>
-      <c r="L61" s="40"/>
-      <c r="M61" s="41"/>
-      <c r="N61" s="41"/>
-      <c r="O61" s="42"/>
+      <c r="A61" s="56"/>
+      <c r="B61" s="56"/>
+      <c r="C61" s="56"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="57"/>
+      <c r="H61" s="58"/>
+      <c r="I61" s="58"/>
+      <c r="J61" s="59"/>
+      <c r="L61" s="48"/>
+      <c r="M61" s="49"/>
+      <c r="N61" s="49"/>
+      <c r="O61" s="50"/>
       <c r="P61" s="12"/>
       <c r="Q61" s="12"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A62" s="50"/>
-      <c r="B62" s="50"/>
-      <c r="C62" s="50"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="52"/>
-      <c r="H62" s="53"/>
-      <c r="I62" s="53"/>
-      <c r="J62" s="54"/>
-      <c r="L62" s="40"/>
-      <c r="M62" s="41"/>
-      <c r="N62" s="41"/>
-      <c r="O62" s="42"/>
+      <c r="A62" s="56"/>
+      <c r="B62" s="56"/>
+      <c r="C62" s="56"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="57"/>
+      <c r="H62" s="58"/>
+      <c r="I62" s="58"/>
+      <c r="J62" s="59"/>
+      <c r="L62" s="48"/>
+      <c r="M62" s="49"/>
+      <c r="N62" s="49"/>
+      <c r="O62" s="50"/>
       <c r="P62" s="12"/>
       <c r="Q62" s="12"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A63" s="50"/>
-      <c r="B63" s="50"/>
-      <c r="C63" s="50"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="52"/>
-      <c r="H63" s="53"/>
-      <c r="I63" s="53"/>
-      <c r="J63" s="54"/>
-      <c r="L63" s="40"/>
-      <c r="M63" s="41"/>
-      <c r="N63" s="41"/>
-      <c r="O63" s="42"/>
+      <c r="A63" s="56"/>
+      <c r="B63" s="56"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="57"/>
+      <c r="H63" s="58"/>
+      <c r="I63" s="58"/>
+      <c r="J63" s="59"/>
+      <c r="L63" s="48"/>
+      <c r="M63" s="49"/>
+      <c r="N63" s="49"/>
+      <c r="O63" s="50"/>
       <c r="P63" s="12"/>
       <c r="Q63" s="12"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A64" s="50"/>
-      <c r="B64" s="50"/>
-      <c r="C64" s="50"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="52"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="53"/>
-      <c r="J64" s="54"/>
-      <c r="L64" s="40"/>
-      <c r="M64" s="41"/>
-      <c r="N64" s="41"/>
-      <c r="O64" s="42"/>
+      <c r="A64" s="56"/>
+      <c r="B64" s="56"/>
+      <c r="C64" s="56"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="57"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="58"/>
+      <c r="J64" s="59"/>
+      <c r="L64" s="48"/>
+      <c r="M64" s="49"/>
+      <c r="N64" s="49"/>
+      <c r="O64" s="50"/>
       <c r="P64" s="12"/>
       <c r="Q64" s="12"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A65" s="50" t="s">
+      <c r="A65" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="B65" s="50"/>
-      <c r="C65" s="50"/>
-      <c r="D65" s="29">
+      <c r="B65" s="56"/>
+      <c r="C65" s="56"/>
+      <c r="D65" s="40">
         <f>H12</f>
         <v>8.3000000000000007</v>
       </c>
-      <c r="E65" s="29">
+      <c r="E65" s="40">
         <f>I11</f>
         <v>7.9</v>
       </c>
-      <c r="F65" s="29" t="str">
+      <c r="F65" s="40" t="str">
         <f>J11&amp;", "&amp;J13&amp;", "&amp;J17</f>
         <v>7.9, 8.1, 8.5</v>
       </c>
-      <c r="G65" s="52" t="s">
+      <c r="G65" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="H65" s="53"/>
-      <c r="I65" s="53"/>
-      <c r="J65" s="54"/>
-      <c r="L65" s="40"/>
-      <c r="M65" s="41"/>
-      <c r="N65" s="41"/>
-      <c r="O65" s="42"/>
+      <c r="H65" s="58"/>
+      <c r="I65" s="58"/>
+      <c r="J65" s="59"/>
+      <c r="L65" s="48"/>
+      <c r="M65" s="49"/>
+      <c r="N65" s="49"/>
+      <c r="O65" s="50"/>
       <c r="P65" s="12"/>
       <c r="Q65" s="12"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A66" s="50"/>
-      <c r="B66" s="50"/>
-      <c r="C66" s="50"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="52"/>
-      <c r="H66" s="53"/>
-      <c r="I66" s="53"/>
-      <c r="J66" s="54"/>
-      <c r="L66" s="43"/>
-      <c r="M66" s="44"/>
-      <c r="N66" s="44"/>
-      <c r="O66" s="45"/>
+      <c r="A66" s="56"/>
+      <c r="B66" s="56"/>
+      <c r="C66" s="56"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="40"/>
+      <c r="G66" s="57"/>
+      <c r="H66" s="58"/>
+      <c r="I66" s="58"/>
+      <c r="J66" s="59"/>
+      <c r="L66" s="51"/>
+      <c r="M66" s="52"/>
+      <c r="N66" s="52"/>
+      <c r="O66" s="53"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A67" s="50"/>
-      <c r="B67" s="50"/>
-      <c r="C67" s="50"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="52"/>
-      <c r="H67" s="53"/>
-      <c r="I67" s="53"/>
-      <c r="J67" s="54"/>
+      <c r="A67" s="56"/>
+      <c r="B67" s="56"/>
+      <c r="C67" s="56"/>
+      <c r="D67" s="40"/>
+      <c r="E67" s="40"/>
+      <c r="F67" s="40"/>
+      <c r="G67" s="57"/>
+      <c r="H67" s="58"/>
+      <c r="I67" s="58"/>
+      <c r="J67" s="59"/>
       <c r="L67" s="12"/>
       <c r="M67" s="12"/>
       <c r="N67" s="12"/>
       <c r="O67" s="12"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A68" s="50"/>
-      <c r="B68" s="50"/>
-      <c r="C68" s="50"/>
-      <c r="D68" s="29"/>
-      <c r="E68" s="29"/>
-      <c r="F68" s="29"/>
-      <c r="G68" s="52"/>
-      <c r="H68" s="53"/>
-      <c r="I68" s="53"/>
-      <c r="J68" s="54"/>
+      <c r="A68" s="56"/>
+      <c r="B68" s="56"/>
+      <c r="C68" s="56"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="57"/>
+      <c r="H68" s="58"/>
+      <c r="I68" s="58"/>
+      <c r="J68" s="59"/>
       <c r="M68" s="7"/>
       <c r="N68" s="7"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A69" s="50"/>
-      <c r="B69" s="50"/>
-      <c r="C69" s="50"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="29"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="52"/>
-      <c r="H69" s="53"/>
-      <c r="I69" s="53"/>
-      <c r="J69" s="54"/>
+      <c r="A69" s="56"/>
+      <c r="B69" s="56"/>
+      <c r="C69" s="56"/>
+      <c r="D69" s="40"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="40"/>
+      <c r="G69" s="57"/>
+      <c r="H69" s="58"/>
+      <c r="I69" s="58"/>
+      <c r="J69" s="59"/>
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A70" s="50"/>
-      <c r="B70" s="50"/>
-      <c r="C70" s="50"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="52"/>
-      <c r="H70" s="53"/>
-      <c r="I70" s="53"/>
-      <c r="J70" s="54"/>
+      <c r="A70" s="56"/>
+      <c r="B70" s="56"/>
+      <c r="C70" s="56"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="40"/>
+      <c r="G70" s="57"/>
+      <c r="H70" s="58"/>
+      <c r="I70" s="58"/>
+      <c r="J70" s="59"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A71" s="50" t="s">
+      <c r="A71" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="B71" s="50"/>
-      <c r="C71" s="50"/>
+      <c r="B71" s="56"/>
+      <c r="C71" s="56"/>
       <c r="D71" s="10">
         <f>E21</f>
         <v>8.3000000000000007</v>
@@ -9536,12 +9557,12 @@
         <f>G21</f>
         <v>8</v>
       </c>
-      <c r="G71" s="52" t="s">
+      <c r="G71" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="H71" s="53"/>
-      <c r="I71" s="53"/>
-      <c r="J71" s="54"/>
+      <c r="H71" s="58"/>
+      <c r="I71" s="58"/>
+      <c r="J71" s="59"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="F73" s="8"/>
@@ -9609,31 +9630,22 @@
     <sortCondition ref="G3"/>
   </sortState>
   <mergeCells count="57">
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="D65:D70"/>
-    <mergeCell ref="E65:E70"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="F65:F70"/>
-    <mergeCell ref="A65:C70"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="D58:D64"/>
-    <mergeCell ref="E58:E64"/>
-    <mergeCell ref="F58:F64"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="A45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="L60:O66"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="G45:J46"/>
+    <mergeCell ref="G47:J50"/>
+    <mergeCell ref="G51:J53"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="G54:J57"/>
+    <mergeCell ref="G58:J64"/>
+    <mergeCell ref="G65:J70"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
     <mergeCell ref="G71:J71"/>
     <mergeCell ref="A51:C53"/>
     <mergeCell ref="A54:C57"/>
@@ -9650,22 +9662,31 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="L60:O66"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="G45:J46"/>
-    <mergeCell ref="G47:J50"/>
-    <mergeCell ref="G51:J53"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="G54:J57"/>
-    <mergeCell ref="G58:J64"/>
-    <mergeCell ref="G65:J70"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="F65:F70"/>
+    <mergeCell ref="A65:C70"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="D58:D64"/>
+    <mergeCell ref="E58:E64"/>
+    <mergeCell ref="F58:F64"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="D65:D70"/>
+    <mergeCell ref="E65:E70"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
